--- a/biology/Botanique/Psilocine/Psilocine.xlsx
+++ b/biology/Botanique/Psilocine/Psilocine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La psilocine est une molécule hallucinogène extraite de divers champignons (psilocybe, stropharia, etc.) qui poussent naturellement dans les pays tropicaux et dans certains pays tempérés.
@@ -515,7 +527,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La psilocine a été isolée par Albert Hofmann en 1959.
 </t>
@@ -546,7 +560,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La psilocine interagit principalement avec les sous-types de récepteurs sérotoninergiques 5-HT1A, 5-HT2A et 5-HT2C : c’est un agoniste mixte de ces récepteurs.
 </t>
@@ -577,7 +593,9 @@
           <t>Législation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La psilocine est une substance réglementée, citée au tableau I de la Convention sur les substances psychotropes de 1971.
 </t>
